--- a/xlsxtest/Report.xlsx
+++ b/xlsxtest/Report.xlsx
@@ -24,6 +24,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <color rgb="FFDC143C"/>
     </font>
     <font>
       <sz val="12"/>
@@ -48,7 +49,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4B0082"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4B0082"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4B0082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4B0082"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4B0082"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4B0082"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4B0082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4B0082"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -71,11 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles>
@@ -408,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -450,6 +481,12 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
+      <c r="C2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v/>
+      </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
@@ -467,6 +504,12 @@
       <c r="B3" s="4">
         <v>3</v>
       </c>
+      <c r="C3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v/>
+      </c>
       <c r="E3" s="4">
         <v>6</v>
       </c>
@@ -484,6 +527,12 @@
       <c r="B4" s="4">
         <v>4</v>
       </c>
+      <c r="C4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v/>
+      </c>
       <c r="E4" s="4">
         <v>7</v>
       </c>
@@ -518,18 +567,95 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>1</v>
+      <c r="A6" s="4" t="str">
+        <v>啊实打实宽宏大量可接受的华师大可适当拉开建设的拉克丝接电话上的卡号了撒看见很多垃圾上的拉开建设的撒哈拉大厦的绿卡洪都拉斯的火辣司机电话爱上了独家卡省的</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G7" s="4" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G8" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
         <f>A3*A2</f>
+      </c>
+      <c r="B9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G9" s="4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
